--- a/TestData/Data/Repports/TrainingYear.xlsx
+++ b/TestData/Data/Repports/TrainingYear.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
     <x:t>Message</x:t>
   </x:si>
@@ -28,13 +28,10 @@
     <x:t>Update_Success</x:t>
   </x:si>
   <x:si>
-    <x:t>Insertion de l'entity 2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Add_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insertion de l'entity 2021</x:t>
+    <x:t>Mise à jour de l'entity 2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mise à jour de l'entity 2021</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -427,15 +424,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
